--- a/tasks/tasks_2019-01.xlsx
+++ b/tasks/tasks_2019-01.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rewards" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="97">
   <si>
     <t>Larvitar</t>
   </si>
@@ -224,6 +225,87 @@
   </si>
   <si>
     <t>Guadagna 5 caramelle camminando con il compagno</t>
+  </si>
+  <si>
+    <t>Cattura</t>
+  </si>
+  <si>
+    <t>Cattura un Pokémon di tipo Drago</t>
+  </si>
+  <si>
+    <t>Cattura 10 Pokémon di tipo Ghiaccio</t>
+  </si>
+  <si>
+    <t>Cattura 5 Pokémon di tipo Lotta</t>
+  </si>
+  <si>
+    <t>Cattura 10 Pokémon di tipo Terra</t>
+  </si>
+  <si>
+    <t>Cattura 10 Pokémon</t>
+  </si>
+  <si>
+    <t>Cattura 5 Pokémon potenziati da condizioni atmosferiche</t>
+  </si>
+  <si>
+    <t>Cattura 5 Pokémon di tipo Normale, Elettro o Veleno</t>
+  </si>
+  <si>
+    <t>Cattura 7 Pokémon di tipo Volante, Psico o Buio</t>
+  </si>
+  <si>
+    <t>Lotta/Vinci</t>
+  </si>
+  <si>
+    <t>Vinci una sfida in palestra</t>
+  </si>
+  <si>
+    <t>Utilizza una attacco caricato superefficace in 7 lotte</t>
+  </si>
+  <si>
+    <t>Partecipa a un Raid</t>
+  </si>
+  <si>
+    <t>Vinci un Raid di livello 3 o superiore</t>
+  </si>
+  <si>
+    <t>Vinci 5 raid</t>
+  </si>
+  <si>
+    <t>Lancia</t>
+  </si>
+  <si>
+    <t>Uova</t>
+  </si>
+  <si>
+    <t>Varie</t>
+  </si>
+  <si>
+    <t>Evolvi un Pokémon</t>
+  </si>
+  <si>
+    <t>Scambia un Pokémon</t>
+  </si>
+  <si>
+    <t>Trasferisci 3 Pokémon</t>
+  </si>
+  <si>
+    <t>Potenzia i Pokémon 5 volte</t>
+  </si>
+  <si>
+    <t>Usa 5 bacche per catturare un Pokémon</t>
+  </si>
+  <si>
+    <t>Usa 5 Baccalampon per catturare più facilmente un Pokémon</t>
+  </si>
+  <si>
+    <t>Usa 10 Baccananas per catturare un Pokémon</t>
+  </si>
+  <si>
+    <t>Invia 2 pacchi amicizia</t>
+  </si>
+  <si>
+    <t>Utilizza uno strumento evolutivo per evolvere un Pokémon</t>
   </si>
 </sst>
 </file>
@@ -567,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C38"/>
     </sheetView>
   </sheetViews>
@@ -1001,4 +1083,539 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>